--- a/Ct_Cq/prop2.xlsx
+++ b/Ct_Cq/prop2.xlsx
@@ -19,6 +19,32 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t xml:space="preserve">r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r/R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c/R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">theta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">theta corr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
@@ -29,6 +55,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -88,9 +115,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -110,188 +145,471 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1:G9"/>
+      <selection pane="topLeft" activeCell="L18" activeCellId="0" sqref="L18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="n">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
         <v>0.3</v>
       </c>
-      <c r="B1" s="0" t="n">
-        <f aca="false">A1/$B$11</f>
+      <c r="B2" s="1" t="n">
+        <f aca="false">A2/$J$5</f>
         <v>0.2</v>
       </c>
-      <c r="D1" s="0" t="n">
+      <c r="C2" s="2"/>
+      <c r="D2" s="1" t="n">
         <v>0.186</v>
       </c>
-      <c r="E1" s="0" t="n">
-        <f aca="false">D1/$B$11</f>
+      <c r="E2" s="1" t="n">
+        <f aca="false">D2/$J$5</f>
         <v>0.124</v>
       </c>
-      <c r="G1" s="0" t="n">
+      <c r="F2" s="2"/>
+      <c r="G2" s="1" t="n">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="H2" s="2" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <f aca="false">B3*$J$5</f>
+        <v>0.375</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="n">
+        <f aca="false">(D2+D4)/2</f>
+        <v>0.1905</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <f aca="false">D3/$J$5</f>
+        <v>0.127</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="1" t="n">
+        <f aca="false">(G2+G4)/2</f>
+        <v>38.65</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <f aca="false">(H2+H4)/2</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
         <v>0.45</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <f aca="false">A2/$B$11</f>
+      <c r="B4" s="1" t="n">
+        <f aca="false">A4/$J$5</f>
         <v>0.3</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="C4" s="2"/>
+      <c r="D4" s="1" t="n">
         <v>0.195</v>
       </c>
-      <c r="E2" s="0" t="n">
-        <f aca="false">D2/$B$11</f>
+      <c r="E4" s="1" t="n">
+        <f aca="false">D4/$J$5</f>
         <v>0.13</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="F4" s="2"/>
+      <c r="G4" s="1" t="n">
         <v>35.3</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="H4" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <f aca="false">B5*$J$5</f>
+        <v>0.525</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="1" t="n">
+        <f aca="false">(D4+D6)/2</f>
+        <v>0.1995</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <f aca="false">D5/$J$5</f>
+        <v>0.133</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="1" t="n">
+        <f aca="false">(G4+G6)/2</f>
+        <v>31.75</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <f aca="false">(H4+H6)/2</f>
+        <v>31</v>
+      </c>
+      <c r="J5" s="1" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
         <v>0.6</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <f aca="false">A3/$B$11</f>
+      <c r="B6" s="1" t="n">
+        <f aca="false">A6/$J$5</f>
         <v>0.4</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="C6" s="2"/>
+      <c r="D6" s="1" t="n">
         <v>0.204</v>
       </c>
-      <c r="E3" s="0" t="n">
-        <f aca="false">D3/$B$11</f>
+      <c r="E6" s="1" t="n">
+        <f aca="false">D6/$J$5</f>
         <v>0.136</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="F6" s="2"/>
+      <c r="G6" s="1" t="n">
         <v>28.2</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="H6" s="2" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <f aca="false">B7*$J$5</f>
+        <v>0.675</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="1" t="n">
+        <f aca="false">(D6+D8)/2</f>
+        <v>0.2085</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <f aca="false">D7/$J$5</f>
+        <v>0.139</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="1" t="n">
+        <f aca="false">(G6+G8)/2</f>
+        <v>25.75</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <f aca="false">(H6+H8)/2</f>
+        <v>25.7</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
         <v>0.75</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <f aca="false">A4/$B$11</f>
+      <c r="B8" s="1" t="n">
         <v>0.5</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="C8" s="2"/>
+      <c r="D8" s="1" t="n">
         <v>0.213</v>
       </c>
-      <c r="E4" s="0" t="n">
-        <f aca="false">D4/$B$11</f>
+      <c r="E8" s="1" t="n">
+        <f aca="false">D8/$J$5</f>
         <v>0.142</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="F8" s="2"/>
+      <c r="G8" s="1" t="n">
         <v>23.3</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="H8" s="2" t="n">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <f aca="false">B9*$J$5</f>
+        <v>0.825</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="1" t="n">
+        <f aca="false">(D8+D10)/2</f>
+        <v>0.2115</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <f aca="false">D9/$J$5</f>
+        <v>0.141</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="1" t="n">
+        <f aca="false">(G8+G10)/2</f>
+        <v>21.7</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <f aca="false">(H8+H10)/2</f>
+        <v>21.75</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
         <v>0.9</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <f aca="false">A5/$B$11</f>
+      <c r="B10" s="1" t="n">
+        <f aca="false">A10/$J$5</f>
         <v>0.6</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="C10" s="2"/>
+      <c r="D10" s="1" t="n">
         <v>0.21</v>
       </c>
-      <c r="E5" s="0" t="n">
-        <f aca="false">D5/$B$11</f>
+      <c r="E10" s="1" t="n">
+        <f aca="false">D10/$J$5</f>
         <v>0.14</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="F10" s="2"/>
+      <c r="G10" s="1" t="n">
         <v>20.1</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="H10" s="2" t="n">
+        <v>20.1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <f aca="false">B11*$J$5</f>
+        <v>0.975</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="1" t="n">
+        <f aca="false">(D10+D12)/2</f>
+        <v>0.201</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <f aca="false">D11/$J$5</f>
+        <v>0.134</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="1" t="n">
+        <f aca="false">(G10+G12)/2</f>
+        <v>18.75</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <f aca="false">(H10+H12)/2</f>
+        <v>18.9</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
         <v>1.05</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <f aca="false">A6/$B$11</f>
+      <c r="B12" s="1" t="n">
+        <f aca="false">A12/$J$5</f>
         <v>0.7</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="C12" s="2"/>
+      <c r="D12" s="1" t="n">
         <v>0.192</v>
       </c>
-      <c r="E6" s="0" t="n">
-        <f aca="false">D6/$B$11</f>
+      <c r="E12" s="1" t="n">
+        <f aca="false">D12/$J$5</f>
         <v>0.128</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="F12" s="2"/>
+      <c r="G12" s="1" t="n">
         <v>17.4</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="H12" s="2" t="n">
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <f aca="false">B13*$J$5</f>
+        <v>1.125</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="1" t="n">
+        <f aca="false">(D12+D14)/2</f>
+        <v>0.1785</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <f aca="false">D13/$J$5</f>
+        <v>0.119</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="1" t="n">
+        <f aca="false">(G12+G14)/2</f>
+        <v>16.45</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <f aca="false">(H12+H14)/2</f>
+        <v>16.85</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
         <v>1.2</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <f aca="false">A7/$B$11</f>
+      <c r="B14" s="1" t="n">
+        <f aca="false">A14/$J$5</f>
         <v>0.8</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="C14" s="2"/>
+      <c r="D14" s="1" t="n">
         <v>0.165</v>
       </c>
-      <c r="E7" s="0" t="n">
-        <f aca="false">D7/$B$11</f>
+      <c r="E14" s="1" t="n">
+        <f aca="false">D14/$J$5</f>
         <v>0.11</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="F14" s="2"/>
+      <c r="G14" s="1" t="n">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="H14" s="2" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <f aca="false">B15*$J$5</f>
+        <v>1.275</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="1" t="n">
+        <f aca="false">(D14+D16)/2</f>
+        <v>0.15</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <f aca="false">D15/$J$5</f>
+        <v>0.1</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="1" t="n">
+        <f aca="false">(G14+G16)/2</f>
+        <v>14.8</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <f aca="false">(H14+H16)/2</f>
+        <v>15.05</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
         <v>1.35</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <f aca="false">A8/$B$11</f>
+      <c r="B16" s="1" t="n">
+        <f aca="false">A16/$J$5</f>
         <v>0.9</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="C16" s="2"/>
+      <c r="D16" s="1" t="n">
         <v>0.135</v>
       </c>
-      <c r="E8" s="0" t="n">
-        <f aca="false">D8/$B$11</f>
+      <c r="E16" s="1" t="n">
+        <f aca="false">D16/$J$5</f>
         <v>0.09</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="F16" s="2"/>
+      <c r="G16" s="1" t="n">
         <v>14.1</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="H16" s="2" t="n">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <f aca="false">B17*$J$5</f>
+        <v>1.425</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="1" t="n">
+        <f aca="false">(D16+D18)/2</f>
+        <v>0.06825</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <f aca="false">D17/$J$5</f>
+        <v>0.0455</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="1" t="n">
+        <f aca="false">(G16+G18)/2</f>
+        <v>7.1</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <f aca="false">(H16+H18)/2</f>
+        <v>13.25</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
         <v>1.5</v>
       </c>
-      <c r="B9" s="0" t="n">
-        <f aca="false">A9/$B$11</f>
+      <c r="B18" s="1" t="n">
+        <f aca="false">A18/$J$5</f>
         <v>1</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="C18" s="2"/>
+      <c r="D18" s="1" t="n">
         <v>0.0015</v>
       </c>
-      <c r="E9" s="0" t="n">
-        <f aca="false">D9/$B$11</f>
+      <c r="E18" s="1" t="n">
+        <f aca="false">D18/$J$5</f>
         <v>0.001</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="F18" s="2"/>
+      <c r="G18" s="1" t="n">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="n">
-        <v>1.5</v>
+      <c r="H18" s="2" t="n">
+        <v>12.4</v>
       </c>
     </row>
   </sheetData>
